--- a/03 Modelagem_dos_dados_e_Analise_Exploratoria/04_Information_Value_1.xlsx
+++ b/03 Modelagem_dos_dados_e_Analise_Exploratoria/04_Information_Value_1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrpen\OneDrive\Área de Trabalho\Portifolio_Profissional\Turnover_Funcionarios\Projeto_Turnover_de_Funcionarios\02 Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrpen\OneDrive\Área de Trabalho\Portifolio_Profissional\Turnover_Funcionarios\Projeto_Turnover_de_Funcionarios\03 Modelagem_dos_dados_e_Analise_Exploratoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E7376-4D99-48E5-BF08-19E738DD2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D5511-8264-4EFF-8C68-0CB1F0E3E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information Value (IV)" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Information Value (IV)'!$A$1:$M$44</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -206,17 +209,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:M44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection sqref="A1:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,203 +538,201 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>138</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>150</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>0.1020408163265306</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>138</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>5.0632911392405063E-2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>0.1119221411192214</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>0.08</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="4">
         <v>0.4523940561364887</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="4">
         <v>-0.79320167333999136</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="4">
         <v>4.8614719577029869E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>69</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>208</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>277</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>0.18843537414965991</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>69</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>208</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4">
         <v>0.29113924050632911</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="4">
         <v>0.16869424168694239</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="4">
         <v>0.24909747292418771</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="4">
         <v>1.72583982473223</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="4">
         <v>0.54571378692515449</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <v>6.6819923995773578E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>156</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>887</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>1043</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>0.70952380952380956</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <v>156</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <v>887</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>0.65822784810126578</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>0.71938361719383614</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="4">
         <v>0.14956855225311599</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <v>0.91498865468868174</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="4">
         <v>-8.884361303082941E-2</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="4">
         <v>5.4332994838630789E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>237</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>1233</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>1470</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>237</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>1233</v>
       </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>0.16122448979591841</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10">
+      <c r="M6" s="5">
         <v>0.1208679430566665</v>
       </c>
     </row>
@@ -2008,6 +2001,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>